--- a/Checklist/Web App/WebApp.xlsx
+++ b/Checklist/Web App/WebApp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Dropbox\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Github\PentestResources\Checklist\Web App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2545687-0807-49AE-9138-4D7268C72C98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E7DA0-A68D-4EDC-A894-7B260678FBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3525" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Tools" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TLS" sheetId="8" r:id="rId3"/>
     <sheet name="Password Policy" sheetId="12" r:id="rId4"/>
     <sheet name="Commons" sheetId="6" r:id="rId5"/>
-    <sheet name="Advance" sheetId="13" r:id="rId6"/>
+    <sheet name="Technical Tops" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Weak input validation</t>
   </si>
@@ -310,6 +310,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -332,6 +333,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -354,15 +356,13 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <t>hsecscan</t>
-  </si>
-  <si>
-    <t>CORStest</t>
   </si>
   <si>
     <t>Insecure captcha</t>
@@ -478,9 +478,6 @@
     <t>Technical Tops</t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
     <t>NoSQLi</t>
   </si>
   <si>
@@ -493,13 +490,52 @@
     <t>IIS Short Name Enumeration</t>
   </si>
   <si>
-    <t>dirbuster |dirb |dirbgo | opendoor</t>
-  </si>
-  <si>
     <t>API Rate Limiter</t>
   </si>
   <si>
     <t>Malware (Eicar) can be uploaded</t>
+  </si>
+  <si>
+    <t>dirbuster |dirb |dirsearch | opendoor |  gobuster</t>
+  </si>
+  <si>
+    <t>getJS</t>
+  </si>
+  <si>
+    <t>retire</t>
+  </si>
+  <si>
+    <t>wappalyzer</t>
+  </si>
+  <si>
+    <t>linkfinder</t>
+  </si>
+  <si>
+    <t>photon</t>
+  </si>
+  <si>
+    <t>dirhunt</t>
+  </si>
+  <si>
+    <t>corstest</t>
+  </si>
+  <si>
+    <t>corsy</t>
+  </si>
+  <si>
+    <t>Goohak</t>
+  </si>
+  <si>
+    <t>hakrawler</t>
+  </si>
+  <si>
+    <t>h2t</t>
+  </si>
+  <si>
+    <t>sslscan</t>
+  </si>
+  <si>
+    <t>testssl</t>
   </si>
 </sst>
 </file>
@@ -517,11 +553,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -642,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -671,10 +709,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1022,15 +1056,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B3C4F-73FB-4E28-9665-247894A51A0B}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1069,17 +1103,78 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>90</v>
+      <c r="A8" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1087,9 +1182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C90125-D710-4EF2-B356-32A46CE0C44A}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1131,7 +1228,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1146,7 +1243,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1156,7 +1253,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1205,7 +1302,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
   </cols>
@@ -1275,7 +1372,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,14 +1431,14 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="94.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,13 +1448,13 @@
     </row>
     <row r="3" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,7 +1480,7 @@
     <row r="10" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1501,7 @@
     <row r="15" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,323 +1542,276 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C1016"/>
+  <dimension ref="A1:B1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
+      <c r="A18" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>112</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2686,35 +2736,23 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -2725,101 +2763,151 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEF0A61-8EFC-4A3D-9683-7C196F8E9ADC}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97E30D0-0C9A-4DAF-99AE-2943511A82F5}">
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>114</v>
+      <c r="A1" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>83</v>
+      <c r="A2" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>79</v>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>92</v>
+      <c r="A4" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>93</v>
+      <c r="A5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>94</v>
+      <c r="A6" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>97</v>
+      <c r="A7" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>99</v>
+      <c r="A8" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>100</v>
+      <c r="A9" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>101</v>
+      <c r="A10" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>115</v>
+      <c r="A11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>120</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Checklist/Web App/WebApp.xlsx
+++ b/Checklist/Web App/WebApp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Berrutto\Documents\Github\PentestResources\Checklist\Web App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E7DA0-A68D-4EDC-A894-7B260678FBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934CFDCE-F52F-47CA-9781-4FC57AD3FAE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3525" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3525" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory Tools" sheetId="9" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B3C4F-73FB-4E28-9665-247894A51A0B}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1004"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
